--- a/team_specific_matrix/Colorado Col._B.xlsx
+++ b/team_specific_matrix/Colorado Col._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1176470588235294</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="C2">
-        <v>0.7058823529411765</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1764705882352941</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2307692307692308</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S6">
-        <v>0.2</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1052631578947368</v>
+        <v>0.09375</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05263157894736842</v>
+        <v>0.03125</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1578947368421053</v>
+        <v>0.21875</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2105263157894737</v>
+        <v>0.1875</v>
       </c>
       <c r="R8">
-        <v>0.05263157894736842</v>
+        <v>0.03125</v>
       </c>
       <c r="S8">
-        <v>0.4210526315789473</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
         <v>0.4</v>
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1346153846153846</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01923076923076923</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="F10">
-        <v>0.07692307692307693</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1730769230769231</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03846153846153846</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1923076923076923</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="R10">
-        <v>0.0576923076923077</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S10">
-        <v>0.3076923076923077</v>
+        <v>0.293103448275862</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2857142857142857</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="I16">
-        <v>0.07142857142857142</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J16">
-        <v>0.2857142857142857</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K16">
-        <v>0.07142857142857142</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2142857142857143</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04347826086956522</v>
+        <v>0.05</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2173913043478261</v>
+        <v>0.175</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J17">
-        <v>0.4782608695652174</v>
+        <v>0.475</v>
       </c>
       <c r="K17">
-        <v>0.04347826086956522</v>
+        <v>0.025</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04347826086956522</v>
+        <v>0.1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1739130434782609</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I18">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J18">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.04347826086956522</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1739130434782609</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="I19">
-        <v>0.06521739130434782</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="J19">
-        <v>0.4565217391304348</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="K19">
-        <v>0.06521739130434782</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06521739130434782</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1304347826086956</v>
+        <v>0.1382978723404255</v>
       </c>
     </row>
   </sheetData>
